--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/139.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/139.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2875489339741631</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.920536812484606</v>
+        <v>-1.951816152760188</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04321983952309418</v>
+        <v>0.04244601403491256</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2882446582192714</v>
+        <v>-0.2947710731856332</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2839302857731769</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.017997212624898</v>
+        <v>-2.060333497092932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02258643990237244</v>
+        <v>0.02446260169919012</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2905121129044526</v>
+        <v>-0.2957785063683602</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2940045156985533</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.137982504687684</v>
+        <v>-2.18739272215617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04601145147291161</v>
+        <v>0.05411471837745489</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2986562611555413</v>
+        <v>-0.3103892076140836</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3107156602677363</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.273769167214329</v>
+        <v>-2.333217945331858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06422117126272489</v>
+        <v>0.07313476485772251</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3275608332112608</v>
+        <v>-0.3402544913136211</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3232434032471267</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.463527967469505</v>
+        <v>-2.534900228321441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09690288772962521</v>
+        <v>0.1061435320969864</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3084692443745387</v>
+        <v>-0.3209643359365353</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3253188736085322</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.391200835166116</v>
+        <v>-2.467451846713823</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2147550495315936</v>
+        <v>0.2354789721339516</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3707913971349765</v>
+        <v>-0.3841610575034274</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3171075698112522</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.252132714555153</v>
+        <v>-2.331921422627132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3067818807015689</v>
+        <v>0.3282358273493813</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3888565721637898</v>
+        <v>-0.4066238973820578</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2996690572998849</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.972071399925365</v>
+        <v>-2.055505118056297</v>
       </c>
       <c r="F9" t="n">
-        <v>0.416993610843812</v>
+        <v>0.4489467633133489</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3370263249846219</v>
+        <v>-0.3540008440895264</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2743250850312248</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.613771218272097</v>
+        <v>-1.703219604513528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4884615048457019</v>
+        <v>0.5299560715893271</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2546168305894622</v>
+        <v>-0.269123868420731</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2407801491475733</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.058479888145337</v>
+        <v>-1.143377304487405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4695319813470706</v>
+        <v>0.5110309282349685</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2025631960523853</v>
+        <v>-0.2194690928970171</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1985683929686142</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4931726281149436</v>
+        <v>-0.57098151097565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3701815489530973</v>
+        <v>0.4155087419353579</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1063577072462293</v>
+        <v>-0.1184381451504079</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1455934714426252</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07298730000054073</v>
+        <v>-0.006694824560801515</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2306403727606802</v>
+        <v>0.2782248000914856</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02035840651564576</v>
+        <v>0.006850041578558484</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.08223216941200286</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6623605327133825</v>
+        <v>0.5944916572555825</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04918514410242647</v>
+        <v>-0.005487364789620021</v>
       </c>
       <c r="G14" t="n">
-        <v>0.160680708436699</v>
+        <v>0.1491945101055203</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.00840295551266312</v>
       </c>
       <c r="E15" t="n">
-        <v>1.198805562082693</v>
+        <v>1.13277926731562</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2674053918177315</v>
+        <v>-0.2264817038776516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3112131266574767</v>
+        <v>0.3036967990854788</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.06994881201982338</v>
       </c>
       <c r="E16" t="n">
-        <v>1.744313109952274</v>
+        <v>1.685141740972017</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.64849108397772</v>
+        <v>-0.6107955623666393</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4645094159143447</v>
+        <v>0.4612184675174365</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1470311864984386</v>
       </c>
       <c r="E17" t="n">
-        <v>2.339933888446114</v>
+        <v>2.292232657268036</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8711177568313876</v>
+        <v>-0.8265176677983995</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5989345835962177</v>
+        <v>0.5961006302517639</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2200628356564567</v>
       </c>
       <c r="E18" t="n">
-        <v>2.817908371918804</v>
+        <v>2.772375312155725</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.170504998016489</v>
+        <v>-1.133505919344772</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7597924619159018</v>
+        <v>0.7587222466652657</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2935435712029726</v>
       </c>
       <c r="E19" t="n">
-        <v>3.250167289617051</v>
+        <v>3.209199800234244</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.459249948666957</v>
+        <v>-1.42308747755133</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9424838993870345</v>
+        <v>0.9393345756549445</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3730659922515235</v>
       </c>
       <c r="E20" t="n">
-        <v>3.562740225111149</v>
+        <v>3.524332200031705</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.732681914939974</v>
+        <v>-1.69909350860862</v>
       </c>
       <c r="G20" t="n">
-        <v>1.118443055110987</v>
+        <v>1.122932702990532</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4598771527770382</v>
       </c>
       <c r="E21" t="n">
-        <v>3.926176855948234</v>
+        <v>3.894105439583333</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.998151508949221</v>
+        <v>-1.966834207423275</v>
       </c>
       <c r="G21" t="n">
-        <v>1.252170319805406</v>
+        <v>1.253461002317769</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5513688562468856</v>
       </c>
       <c r="E22" t="n">
-        <v>4.277192857675957</v>
+        <v>4.250125026118601</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.269375152484739</v>
+        <v>-2.244739031022791</v>
       </c>
       <c r="G22" t="n">
-        <v>1.407183625617183</v>
+        <v>1.407713623074182</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6410032614124069</v>
       </c>
       <c r="E23" t="n">
-        <v>4.396062672997289</v>
+        <v>4.365398742992024</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.56026199368457</v>
+        <v>-2.541155074342894</v>
       </c>
       <c r="G23" t="n">
-        <v>1.542116890034692</v>
+        <v>1.545159630256145</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7236656735532428</v>
       </c>
       <c r="E24" t="n">
-        <v>4.590040282211146</v>
+        <v>4.563111155222426</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.867291856601534</v>
+        <v>-2.863033626344398</v>
       </c>
       <c r="G24" t="n">
-        <v>1.620311225591398</v>
+        <v>1.625136684531851</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7941625414973016</v>
       </c>
       <c r="E25" t="n">
-        <v>4.616122581307139</v>
+        <v>4.586333220108329</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.086418794181293</v>
+        <v>-3.089329400050519</v>
       </c>
       <c r="G25" t="n">
-        <v>1.709530384282556</v>
+        <v>1.714022952258282</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.850579874492432</v>
       </c>
       <c r="E26" t="n">
-        <v>4.671385401548033</v>
+        <v>4.640423621732223</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.219915371277348</v>
+        <v>-3.232371771564935</v>
       </c>
       <c r="G26" t="n">
-        <v>1.825837815204343</v>
+        <v>1.836374982276431</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8932633739820961</v>
       </c>
       <c r="E27" t="n">
-        <v>4.663666127291399</v>
+        <v>4.632177270114771</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.352494308148267</v>
+        <v>-3.369867420381989</v>
       </c>
       <c r="G27" t="n">
-        <v>1.879277035379692</v>
+        <v>1.883227925513691</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9248923136761676</v>
       </c>
       <c r="E28" t="n">
-        <v>4.618346234549593</v>
+        <v>4.58114420919324</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.415694679835386</v>
+        <v>-3.442577085285197</v>
       </c>
       <c r="G28" t="n">
-        <v>1.860146025244515</v>
+        <v>1.865618285489241</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9483540227212327</v>
       </c>
       <c r="E29" t="n">
-        <v>4.525627340584527</v>
+        <v>4.481713474154266</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.470526785889462</v>
+        <v>-3.50175867460209</v>
       </c>
       <c r="G29" t="n">
-        <v>1.900574756881777</v>
+        <v>1.904649751103503</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.966028590535255</v>
       </c>
       <c r="E30" t="n">
-        <v>4.469631576201997</v>
+        <v>4.433146434458279</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.574660335829253</v>
+        <v>-3.613590328101197</v>
       </c>
       <c r="G30" t="n">
-        <v>1.921895839153317</v>
+        <v>1.932209618867496</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9790179085769801</v>
       </c>
       <c r="E31" t="n">
-        <v>4.282942527057956</v>
+        <v>4.242500654987876</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.519522349700131</v>
+        <v>-3.562497405207937</v>
       </c>
       <c r="G31" t="n">
-        <v>1.908508658207775</v>
+        <v>1.915508128755592</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9874366008107573</v>
       </c>
       <c r="E32" t="n">
-        <v>4.167584127395259</v>
+        <v>4.125457359828271</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.446868896648423</v>
+        <v>-3.48733047936773</v>
       </c>
       <c r="G32" t="n">
-        <v>1.822479704595253</v>
+        <v>1.825453822556434</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9911046854818246</v>
       </c>
       <c r="E33" t="n">
-        <v>3.942345428506956</v>
+        <v>3.898514784817877</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.451184798805149</v>
+        <v>-3.493054597908138</v>
       </c>
       <c r="G33" t="n">
-        <v>1.783836611773172</v>
+        <v>1.786349354537626</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9901551277780339</v>
       </c>
       <c r="E34" t="n">
-        <v>3.77606931172191</v>
+        <v>3.730761099364831</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.415311417211523</v>
+        <v>-3.453698271593649</v>
       </c>
       <c r="G34" t="n">
-        <v>1.687520159312107</v>
+        <v>1.688361147012471</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9858110280822632</v>
       </c>
       <c r="E35" t="n">
-        <v>3.676673617837118</v>
+        <v>3.633892748725403</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.327044209875637</v>
+        <v>-3.364584966389082</v>
       </c>
       <c r="G35" t="n">
-        <v>1.620296625110489</v>
+        <v>1.623974486251488</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9785516668542089</v>
       </c>
       <c r="E36" t="n">
-        <v>3.477782946797354</v>
+        <v>3.426414074814913</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.258809592371064</v>
+        <v>-3.282972658251558</v>
       </c>
       <c r="G36" t="n">
-        <v>1.528560343510604</v>
+        <v>1.527144096862423</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9695710047013937</v>
       </c>
       <c r="E37" t="n">
-        <v>3.302155221990037</v>
+        <v>3.252481465841142</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.182792188517903</v>
+        <v>-3.203369376287125</v>
       </c>
       <c r="G37" t="n">
-        <v>1.40473804506491</v>
+        <v>1.401782907728911</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9576147107942762</v>
       </c>
       <c r="E38" t="n">
-        <v>3.182777309933069</v>
+        <v>3.130836099098993</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.06779953090198</v>
+        <v>-3.083612581750566</v>
       </c>
       <c r="G38" t="n">
-        <v>1.346022211089017</v>
+        <v>1.344181090446381</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9420429066706117</v>
       </c>
       <c r="E39" t="n">
-        <v>2.865924973484518</v>
+        <v>2.802846515812989</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.941067356611105</v>
+        <v>-2.949631998712375</v>
       </c>
       <c r="G39" t="n">
-        <v>1.221932723842687</v>
+        <v>1.210520987964144</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9202151392645445</v>
       </c>
       <c r="E40" t="n">
-        <v>2.615557386903585</v>
+        <v>2.549593874204421</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.841608150634359</v>
+        <v>-2.843950797796222</v>
       </c>
       <c r="G40" t="n">
-        <v>1.194932054497512</v>
+        <v>1.186792286390696</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.891796648363297</v>
       </c>
       <c r="E41" t="n">
-        <v>2.43972233526736</v>
+        <v>2.375534241046741</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.758422640678881</v>
+        <v>-2.758757721715744</v>
       </c>
       <c r="G41" t="n">
-        <v>1.075653425710726</v>
+        <v>1.065669616865092</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8565320462446532</v>
       </c>
       <c r="E42" t="n">
-        <v>2.218114775981146</v>
+        <v>2.14575187249953</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.665827120777497</v>
+        <v>-2.659232813574907</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9833433452111144</v>
+        <v>0.9711154424497541</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8155949437247805</v>
       </c>
       <c r="E43" t="n">
-        <v>2.098428793776997</v>
+        <v>2.030860688225924</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.588551155469972</v>
+        <v>-2.584837523150746</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8784476501678699</v>
+        <v>0.8658503552395096</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7698284306844324</v>
       </c>
       <c r="E44" t="n">
-        <v>1.894334511341234</v>
+        <v>1.823964573503707</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.575201935774794</v>
+        <v>-2.572968792219749</v>
       </c>
       <c r="G44" t="n">
-        <v>0.803732609211799</v>
+        <v>0.7914798856328933</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.721132251131948</v>
       </c>
       <c r="E45" t="n">
-        <v>1.659355831638478</v>
+        <v>1.586102298821407</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.473155524580958</v>
+        <v>-2.463701713192324</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7010634875071903</v>
+        <v>0.6893013400868298</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6718637812831323</v>
       </c>
       <c r="E46" t="n">
-        <v>1.469886850929347</v>
+        <v>1.390489435745732</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.429096383365651</v>
+        <v>-2.418356999632972</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6774457495886511</v>
+        <v>0.666733376745654</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6235806369400384</v>
       </c>
       <c r="E47" t="n">
-        <v>1.195187562913421</v>
+        <v>1.108362883091354</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.366265403845532</v>
+        <v>-2.356667047695898</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5696153578826801</v>
+        <v>0.555320027024593</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5774953713389149</v>
       </c>
       <c r="E48" t="n">
-        <v>1.038810572184736</v>
+        <v>0.9518501078902138</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.318205730861135</v>
+        <v>-2.304695175851912</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4859677427064298</v>
+        <v>0.4673068680565258</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5341306499030448</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8218926873665214</v>
+        <v>0.7264741644813653</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.256865460441833</v>
+        <v>-2.243302343701338</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4120425877675406</v>
+        <v>0.3924516624837276</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4938423244088916</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7004079259143723</v>
+        <v>0.6040856332609436</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.20885834918871</v>
+        <v>-2.19379430301076</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3368457309414699</v>
+        <v>0.3189689021163838</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4566444960127145</v>
       </c>
       <c r="E51" t="n">
-        <v>0.542046729830142</v>
+        <v>0.4392330633645333</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.156340419358724</v>
+        <v>-2.146774184267091</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2764931830556679</v>
+        <v>0.2618649612328536</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4227205540765714</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4252910641444461</v>
+        <v>0.3217780346432921</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.084141771287335</v>
+        <v>-2.068514876570339</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2464775144027669</v>
+        <v>0.2300709540052258</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.39104669859834</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2948270069332084</v>
+        <v>0.1871396999401464</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.033898596382985</v>
+        <v>-2.018454937701398</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1473402490300662</v>
+        <v>0.1324579788394339</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3617001383648703</v>
       </c>
       <c r="E54" t="n">
-        <v>0.254439156642492</v>
+        <v>0.1499201540067019</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.984177388671134</v>
+        <v>-1.970103985122865</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09265852792935363</v>
+        <v>0.06990221838445064</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3333312370993609</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0755015028130855</v>
+        <v>-0.0402277490647016</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.97429651321591</v>
+        <v>-1.957942514549641</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05069674579663762</v>
+        <v>0.02708776816664396</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3059382919532158</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.04096799344679231</v>
+        <v>-0.1602291016564876</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.867088101996666</v>
+        <v>-1.848146168089262</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02019050098519127</v>
+        <v>0.001723812731378042</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.278641223766277</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1928465760073879</v>
+        <v>-0.3169273029651727</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.790791828958141</v>
+        <v>-1.766845580219147</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0327917241377036</v>
+        <v>-0.04973850232888086</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2520844061968929</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2337439830818314</v>
+        <v>-0.3549907566951626</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.774030476874509</v>
+        <v>-1.755264478762059</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1114094736407734</v>
+        <v>-0.1347614828067671</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2260748680095337</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.455363222752772</v>
+        <v>-0.5925099200760987</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.730942997663702</v>
+        <v>-1.711655762382798</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1309638977223136</v>
+        <v>-0.155472264976307</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2009675537919767</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4731028070573126</v>
+        <v>-0.6150662030325472</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.662665308740448</v>
+        <v>-1.639603849144545</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.172216096482848</v>
+        <v>-0.198105669230841</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1772269144729264</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6050707138021862</v>
+        <v>-0.7578837271409634</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.670682432807628</v>
+        <v>-1.64600762007127</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2154875417531091</v>
+        <v>-0.2433598598085562</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.155121295094666</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.7631019390178712</v>
+        <v>-0.9290407846939175</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.61123657478628</v>
+        <v>-1.583273733749196</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2683237620669131</v>
+        <v>-0.2997907185221774</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1349318899056358</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8329360392060342</v>
+        <v>-1.006122563605351</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.645311177131907</v>
+        <v>-1.618041858938005</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.32722210205417</v>
+        <v>-0.3588190027895252</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1163567102315898</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.024671014552256</v>
+        <v>-1.210008059164115</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.611442441567098</v>
+        <v>-1.584392130586832</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3666594610377049</v>
+        <v>-0.4021605303681499</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.09939816244254443</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.184866031038667</v>
+        <v>-1.38481377689625</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.563036007161111</v>
+        <v>-1.529177491932938</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4221836298868717</v>
+        <v>-0.460559533908316</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.08326425312010965</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.306699743984543</v>
+        <v>-1.511160498491125</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.593694096974012</v>
+        <v>-1.563469641444111</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4220726662319627</v>
+        <v>-0.4598747713536798</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.06791129738249249</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.442233088167416</v>
+        <v>-1.652364669459087</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.561413893732111</v>
+        <v>-1.528289782693666</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4710047179506768</v>
+        <v>-0.5109341131408479</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.05274244766167172</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.585414164250468</v>
+        <v>-1.80316281643241</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.594272276018012</v>
+        <v>-1.560304257183021</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4811038705954923</v>
+        <v>-0.5223297884903904</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.03784295459557866</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.683246146629897</v>
+        <v>-1.902822779021656</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.609118045006371</v>
+        <v>-1.576080076805289</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4870389660850362</v>
+        <v>-0.5280312762853888</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.02343199808778672</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.803165006504546</v>
+        <v>-2.029386317758031</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.617562963164187</v>
+        <v>-1.584076760199196</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5642331686994699</v>
+        <v>-0.6103560878912758</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.01007484230126794</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.876051337226754</v>
+        <v>-2.107141908863419</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.631116589592092</v>
+        <v>-1.597084328641102</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6030470871481869</v>
+        <v>-0.6529135696450825</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.00109695613703137</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.959837656971641</v>
+        <v>-2.193543174739123</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.630284362180275</v>
+        <v>-1.595335191028193</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6124994384887298</v>
+        <v>-0.6602868125041714</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.008974070130819222</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.946834468674008</v>
+        <v>-2.178476208464991</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.622566547971731</v>
+        <v>-1.58504769217965</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6591143938871717</v>
+        <v>-0.7116863454965213</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.0127272654902702</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.990374562792996</v>
+        <v>-2.221884898255797</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.613030973890007</v>
+        <v>-1.573165820815835</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6577258881527176</v>
+        <v>-0.7106789123137943</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.01156866579411933</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.893162370828159</v>
+        <v>-2.118467501904598</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.571718913157745</v>
+        <v>-1.52458564068703</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6764875061208944</v>
+        <v>-0.7328234617086066</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.005963914690812818</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.876443360139163</v>
+        <v>-2.096106865392331</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.461650267728411</v>
+        <v>-1.408488456690334</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6802558902435297</v>
+        <v>-0.7339973403736971</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.004078027968990208</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.730712310065339</v>
+        <v>-1.94567300041769</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.475222874781498</v>
+        <v>-1.422160347013603</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6416186376138129</v>
+        <v>-0.6945979426405259</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.01772732518526881</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.589017562938831</v>
+        <v>-1.795501944099412</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.440719018297144</v>
+        <v>-1.385729227049249</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6496576624023561</v>
+        <v>-0.7042853617237052</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.03444275428968541</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.426556551815329</v>
+        <v>-1.627872362734093</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.38521675016934</v>
+        <v>-1.333145595055173</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.624793043414181</v>
+        <v>-0.6757852229891673</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.05370031668098087</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.240150752000925</v>
+        <v>-1.428556817699874</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.374248868910434</v>
+        <v>-1.320549760174903</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5606575109248346</v>
+        <v>-0.606291314006186</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.07469759675223429</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.086330305479421</v>
+        <v>-1.26885529746819</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.262458826781919</v>
+        <v>-1.207185786204388</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5057334218410311</v>
+        <v>-0.5483478454703833</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.09684621850492854</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.8776777529038403</v>
+        <v>-1.048849410937704</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.231920460912473</v>
+        <v>-1.176758383989851</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4695738708215863</v>
+        <v>-0.5079059734003033</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1190409822765509</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.6163291446311833</v>
+        <v>-0.7775739356949581</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.145857926193859</v>
+        <v>-1.091716422886783</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.442808269219048</v>
+        <v>-0.4778873846512204</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1401783517825114</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.3198751400607174</v>
+        <v>-0.4648827363054966</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.080710580377513</v>
+        <v>-1.029255565557709</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.389652298373335</v>
+        <v>-0.4223661358982354</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1589870625458734</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1037865625581391</v>
+        <v>-0.2353383555971038</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.016706452216348</v>
+        <v>-0.9702404217231791</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3540738464940719</v>
+        <v>-0.3847202559222455</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1746780657865995</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1511728752687015</v>
+        <v>0.03488880511636914</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9628248374694539</v>
+        <v>-0.9176027679497387</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2672024451330952</v>
+        <v>-0.2924233158554521</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1865627784891139</v>
       </c>
       <c r="E87" t="n">
-        <v>0.390686464341819</v>
+        <v>0.2889123521169373</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8557054891837553</v>
+        <v>-0.8153672805281298</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2053518879060209</v>
+        <v>-0.227226328404015</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1933378628488874</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5893683485045839</v>
+        <v>0.4964727887205179</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7175937000723379</v>
+        <v>-0.6834592357549835</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1765801802265741</v>
+        <v>-0.19535639867566</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1936975976675272</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8563819433699668</v>
+        <v>0.7808682561081688</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5578629788788353</v>
+        <v>-0.5297643533692974</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1036011364505937</v>
+        <v>-0.1174000509577718</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1859597622615117</v>
       </c>
       <c r="E90" t="n">
-        <v>1.093978489299721</v>
+        <v>1.03239074072901</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4198694536627815</v>
+        <v>-0.3928614840771524</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05252573413442557</v>
+        <v>-0.06356661779787716</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.170877106220358</v>
       </c>
       <c r="E91" t="n">
-        <v>1.263663818377039</v>
+        <v>1.21200877696878</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.23904395765183</v>
+        <v>-0.2143808253002003</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03151126196197667</v>
+        <v>-0.03729451245006603</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1504613016380258</v>
       </c>
       <c r="E92" t="n">
-        <v>1.376849666480463</v>
+        <v>1.334277584245747</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.08743840408423438</v>
+        <v>-0.06748392682578519</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03289976769643084</v>
+        <v>-0.03862461626088385</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1269135432997978</v>
       </c>
       <c r="E93" t="n">
-        <v>1.471890036910074</v>
+        <v>1.440296056270901</v>
       </c>
       <c r="F93" t="n">
-        <v>0.080418944783266</v>
+        <v>0.0988797928447156</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0338999006387033</v>
+        <v>-0.03776610798342953</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1034689887341722</v>
       </c>
       <c r="E94" t="n">
-        <v>1.467940606824166</v>
+        <v>1.446937815036444</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2208580505515919</v>
+        <v>0.2364776450281332</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05722708898715159</v>
+        <v>-0.05823306212178768</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.08232303001622665</v>
       </c>
       <c r="E95" t="n">
-        <v>1.499318500345885</v>
+        <v>1.489733284629069</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3850010370758206</v>
+        <v>0.4027566819093613</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08384668578059898</v>
+        <v>-0.08070612233705438</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06423100889545402</v>
       </c>
       <c r="E96" t="n">
-        <v>1.434103992317357</v>
+        <v>1.429510681023358</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4282797825865362</v>
+        <v>0.4455565316462589</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1193375347744076</v>
+        <v>-0.1177563026919535</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04923211470322434</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360107295022013</v>
+        <v>1.359070660877468</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5055031861627882</v>
+        <v>0.5238063490304197</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1519885902313989</v>
+        <v>-0.1539129336152165</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03674658524299152</v>
       </c>
       <c r="E98" t="n">
-        <v>1.269358005931583</v>
+        <v>1.266937246196856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.530564911643236</v>
+        <v>0.5486446871529584</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1925691668701152</v>
+        <v>-0.1935079777925695</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02605892843917659</v>
       </c>
       <c r="E99" t="n">
-        <v>1.2064007322516</v>
+        <v>1.204691015937146</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5570560242046835</v>
+        <v>0.5726332772865884</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2141880989522003</v>
+        <v>-0.2169344494111996</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01268552442001516</v>
       </c>
       <c r="E100" t="n">
-        <v>1.107574457122263</v>
+        <v>1.108516188140899</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5305517712104179</v>
+        <v>0.5468210870874135</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2312224800288321</v>
+        <v>-0.2331132423065589</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.002854258787253386</v>
       </c>
       <c r="E101" t="n">
-        <v>1.018872155455287</v>
+        <v>1.020224159987468</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5159060288105127</v>
+        <v>0.5320600008883265</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2242054889039249</v>
+        <v>-0.2244945784259249</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02659564532378609</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9471195520756697</v>
+        <v>0.9531889719895771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4587670467728008</v>
+        <v>0.4719425207451609</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2496599673208272</v>
+        <v>-0.2516441726763721</v>
       </c>
     </row>
   </sheetData>
